--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col9a2-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col9a2-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +534,52 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1480765</v>
+        <v>0.1272026666666667</v>
       </c>
       <c r="H2">
-        <v>0.296153</v>
+        <v>0.381608</v>
       </c>
       <c r="I2">
-        <v>0.4132296327923659</v>
+        <v>0.4660422775506914</v>
       </c>
       <c r="J2">
-        <v>0.3194946393625491</v>
+        <v>0.5537822125863816</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.27644</v>
+        <v>0.110622</v>
       </c>
       <c r="N2">
-        <v>0.8293199999999999</v>
+        <v>0.331866</v>
       </c>
       <c r="O2">
-        <v>0.1940440920813294</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P2">
-        <v>0.2208748168298663</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q2">
-        <v>0.04093426766</v>
+        <v>0.014071413392</v>
       </c>
       <c r="R2">
-        <v>0.24560560596</v>
+        <v>0.126642720528</v>
       </c>
       <c r="S2">
-        <v>0.08018476891629581</v>
+        <v>0.04572804433076395</v>
       </c>
       <c r="T2">
-        <v>0.07056831994732721</v>
+        <v>0.06633819853874935</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +593,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1480765</v>
+        <v>0.1272026666666667</v>
       </c>
       <c r="H3">
-        <v>0.296153</v>
+        <v>0.381608</v>
       </c>
       <c r="I3">
-        <v>0.4132296327923659</v>
+        <v>0.4660422775506914</v>
       </c>
       <c r="J3">
-        <v>0.3194946393625491</v>
+        <v>0.5537822125863816</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5191680000000001</v>
+        <v>0.6118760000000001</v>
       </c>
       <c r="N3">
-        <v>1.038336</v>
+        <v>1.223752</v>
       </c>
       <c r="O3">
-        <v>0.3644244074579643</v>
+        <v>0.5427242473053424</v>
       </c>
       <c r="P3">
-        <v>0.2765425575264748</v>
+        <v>0.4417284032613671</v>
       </c>
       <c r="Q3">
-        <v>0.07687658035200001</v>
+        <v>0.07783225886933334</v>
       </c>
       <c r="R3">
-        <v>0.307506321408</v>
+        <v>0.4669935532160001</v>
       </c>
       <c r="S3">
-        <v>0.1505909640744301</v>
+        <v>0.2529324442961665</v>
       </c>
       <c r="T3">
-        <v>0.08835386468531804</v>
+        <v>0.2446213325203293</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +655,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1480765</v>
+        <v>0.1272026666666667</v>
       </c>
       <c r="H4">
-        <v>0.296153</v>
+        <v>0.381608</v>
       </c>
       <c r="I4">
-        <v>0.4132296327923659</v>
+        <v>0.4660422775506914</v>
       </c>
       <c r="J4">
-        <v>0.3194946393625491</v>
+        <v>0.5537822125863816</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.6290166666666667</v>
+        <v>0.192067</v>
       </c>
       <c r="N4">
-        <v>1.88705</v>
+        <v>0.576201</v>
       </c>
       <c r="O4">
-        <v>0.4415315004607061</v>
+        <v>0.1703603638763331</v>
       </c>
       <c r="P4">
-        <v>0.5025826256436589</v>
+        <v>0.2079868696333922</v>
       </c>
       <c r="Q4">
-        <v>0.09314258644166666</v>
+        <v>0.02443143457866667</v>
       </c>
       <c r="R4">
-        <v>0.55885551865</v>
+        <v>0.219882911208</v>
       </c>
       <c r="S4">
-        <v>0.1824538998016399</v>
+        <v>0.07939513198529081</v>
       </c>
       <c r="T4">
-        <v>0.1605724547299038</v>
+        <v>0.1151794288544952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -720,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,40 +732,40 @@
         <v>0.381608</v>
       </c>
       <c r="I5">
-        <v>0.3549780771214635</v>
+        <v>0.4660422775506914</v>
       </c>
       <c r="J5">
-        <v>0.41168487348723</v>
+        <v>0.5537822125863816</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.27644</v>
+        <v>0.212851</v>
       </c>
       <c r="N5">
-        <v>0.8293199999999999</v>
+        <v>0.638553</v>
       </c>
       <c r="O5">
-        <v>0.1940440920813294</v>
+        <v>0.18879544019244</v>
       </c>
       <c r="P5">
-        <v>0.2208748168298663</v>
+        <v>0.2304935943620568</v>
       </c>
       <c r="Q5">
-        <v>0.03516390517333333</v>
+        <v>0.02707521480266667</v>
       </c>
       <c r="R5">
-        <v>0.31647514656</v>
+        <v>0.243676933224</v>
       </c>
       <c r="S5">
-        <v>0.06888139868381053</v>
+        <v>0.0879866569384701</v>
       </c>
       <c r="T5">
-        <v>0.0909308210231186</v>
+        <v>0.1276432526728077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.129733</v>
+      </c>
+      <c r="H6">
+        <v>0.259466</v>
+      </c>
+      <c r="I6">
+        <v>0.475312856073383</v>
+      </c>
+      <c r="J6">
+        <v>0.3765320841568785</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.1272026666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.381608</v>
-      </c>
-      <c r="I6">
-        <v>0.3549780771214635</v>
-      </c>
-      <c r="J6">
-        <v>0.41168487348723</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5191680000000001</v>
+        <v>0.110622</v>
       </c>
       <c r="N6">
-        <v>1.038336</v>
+        <v>0.331866</v>
       </c>
       <c r="O6">
-        <v>0.3644244074579643</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P6">
-        <v>0.2765425575264748</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q6">
-        <v>0.06603955404800001</v>
+        <v>0.014351323926</v>
       </c>
       <c r="R6">
-        <v>0.3962373242880001</v>
+        <v>0.08610794355599999</v>
       </c>
       <c r="S6">
-        <v>0.1293626754155569</v>
+        <v>0.04663767301914268</v>
       </c>
       <c r="T6">
-        <v>0.1138483878091218</v>
+        <v>0.04510520487530434</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +841,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1272026666666667</v>
+        <v>0.129733</v>
       </c>
       <c r="H7">
-        <v>0.381608</v>
+        <v>0.259466</v>
       </c>
       <c r="I7">
-        <v>0.3549780771214635</v>
+        <v>0.475312856073383</v>
       </c>
       <c r="J7">
-        <v>0.41168487348723</v>
+        <v>0.3765320841568785</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6290166666666667</v>
+        <v>0.6118760000000001</v>
       </c>
       <c r="N7">
-        <v>1.88705</v>
+        <v>1.223752</v>
       </c>
       <c r="O7">
-        <v>0.4415315004607061</v>
+        <v>0.5427242473053424</v>
       </c>
       <c r="P7">
-        <v>0.5025826256436589</v>
+        <v>0.4417284032613671</v>
       </c>
       <c r="Q7">
-        <v>0.08001259737777777</v>
+        <v>0.079380509108</v>
       </c>
       <c r="R7">
-        <v>0.7201133764000001</v>
+        <v>0.317522036432</v>
       </c>
       <c r="S7">
-        <v>0.156734003022096</v>
+        <v>0.2579638120469793</v>
       </c>
       <c r="T7">
-        <v>0.2069056646549896</v>
+        <v>0.1663249163112926</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -906,25 +903,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.08306033333333333</v>
+        <v>0.129733</v>
       </c>
       <c r="H8">
-        <v>0.249181</v>
+        <v>0.259466</v>
       </c>
       <c r="I8">
-        <v>0.2317922900861706</v>
+        <v>0.475312856073383</v>
       </c>
       <c r="J8">
-        <v>0.2688204871502208</v>
+        <v>0.3765320841568785</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,33 +930,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.27644</v>
+        <v>0.192067</v>
       </c>
       <c r="N8">
-        <v>0.8293199999999999</v>
+        <v>0.576201</v>
       </c>
       <c r="O8">
-        <v>0.1940440920813294</v>
+        <v>0.1703603638763331</v>
       </c>
       <c r="P8">
-        <v>0.2208748168298663</v>
+        <v>0.2079868696333922</v>
       </c>
       <c r="Q8">
-        <v>0.02296119854666666</v>
+        <v>0.024917428111</v>
       </c>
       <c r="R8">
-        <v>0.20665078692</v>
+        <v>0.149504568666</v>
       </c>
       <c r="S8">
-        <v>0.04497792448122312</v>
+        <v>0.08097447111576067</v>
       </c>
       <c r="T8">
-        <v>0.05937567585942044</v>
+        <v>0.07831372950032614</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -974,49 +971,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.08306033333333333</v>
+        <v>0.129733</v>
       </c>
       <c r="H9">
-        <v>0.249181</v>
+        <v>0.259466</v>
       </c>
       <c r="I9">
-        <v>0.2317922900861706</v>
+        <v>0.475312856073383</v>
       </c>
       <c r="J9">
-        <v>0.2688204871502208</v>
+        <v>0.3765320841568785</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5191680000000001</v>
+        <v>0.212851</v>
       </c>
       <c r="N9">
-        <v>1.038336</v>
+        <v>0.638553</v>
       </c>
       <c r="O9">
-        <v>0.3644244074579643</v>
+        <v>0.18879544019244</v>
       </c>
       <c r="P9">
-        <v>0.2765425575264748</v>
+        <v>0.2304935943620568</v>
       </c>
       <c r="Q9">
-        <v>0.04312226713600001</v>
+        <v>0.027613798783</v>
       </c>
       <c r="R9">
-        <v>0.258733602816</v>
+        <v>0.165682792698</v>
       </c>
       <c r="S9">
-        <v>0.08447076796797731</v>
+        <v>0.08973689989150024</v>
       </c>
       <c r="T9">
-        <v>0.07434030503203491</v>
+        <v>0.08678823346995539</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1027,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.08306033333333333</v>
+        <v>0.01600666666666667</v>
       </c>
       <c r="H10">
-        <v>0.249181</v>
+        <v>0.04802</v>
       </c>
       <c r="I10">
-        <v>0.2317922900861706</v>
+        <v>0.05864486637592556</v>
       </c>
       <c r="J10">
-        <v>0.2688204871502208</v>
+        <v>0.06968570325674002</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1054,214 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6290166666666667</v>
+        <v>0.110622</v>
       </c>
       <c r="N10">
-        <v>1.88705</v>
+        <v>0.331866</v>
       </c>
       <c r="O10">
-        <v>0.4415315004607061</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P10">
-        <v>0.5025826256436589</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q10">
-        <v>0.05224633400555555</v>
+        <v>0.00177068948</v>
       </c>
       <c r="R10">
-        <v>0.47021700605</v>
+        <v>0.01593620532</v>
       </c>
       <c r="S10">
-        <v>0.1023435976369702</v>
+        <v>0.005754231275977665</v>
       </c>
       <c r="T10">
-        <v>0.1351045062587654</v>
+        <v>0.00834772932913027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01600666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.04802</v>
+      </c>
+      <c r="I11">
+        <v>0.05864486637592556</v>
+      </c>
+      <c r="J11">
+        <v>0.06968570325674002</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.6118760000000001</v>
+      </c>
+      <c r="N11">
+        <v>1.223752</v>
+      </c>
+      <c r="O11">
+        <v>0.5427242473053424</v>
+      </c>
+      <c r="P11">
+        <v>0.4417284032613671</v>
+      </c>
+      <c r="Q11">
+        <v>0.009794095173333335</v>
+      </c>
+      <c r="R11">
+        <v>0.05876457104000001</v>
+      </c>
+      <c r="S11">
+        <v>0.03182799096219658</v>
+      </c>
+      <c r="T11">
+        <v>0.03078215442974522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01600666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.04802</v>
+      </c>
+      <c r="I12">
+        <v>0.05864486637592556</v>
+      </c>
+      <c r="J12">
+        <v>0.06968570325674002</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.192067</v>
+      </c>
+      <c r="N12">
+        <v>0.576201</v>
+      </c>
+      <c r="O12">
+        <v>0.1703603638763331</v>
+      </c>
+      <c r="P12">
+        <v>0.2079868696333922</v>
+      </c>
+      <c r="Q12">
+        <v>0.003074352446666666</v>
+      </c>
+      <c r="R12">
+        <v>0.02766917202</v>
+      </c>
+      <c r="S12">
+        <v>0.009990760775281611</v>
+      </c>
+      <c r="T12">
+        <v>0.01449371127857084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01600666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.04802</v>
+      </c>
+      <c r="I13">
+        <v>0.05864486637592556</v>
+      </c>
+      <c r="J13">
+        <v>0.06968570325674002</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.212851</v>
+      </c>
+      <c r="N13">
+        <v>0.638553</v>
+      </c>
+      <c r="O13">
+        <v>0.18879544019244</v>
+      </c>
+      <c r="P13">
+        <v>0.2304935943620568</v>
+      </c>
+      <c r="Q13">
+        <v>0.003407035006666666</v>
+      </c>
+      <c r="R13">
+        <v>0.03066331506</v>
+      </c>
+      <c r="S13">
+        <v>0.01107188336246969</v>
+      </c>
+      <c r="T13">
+        <v>0.01606210821929369</v>
       </c>
     </row>
   </sheetData>
